--- a/Day34(final_task)/document/概設計/概設計.xlsx
+++ b/Day34(final_task)/document/概設計/概設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/Documents/git/daily-trial_standard/Day34(final_task)/document/概設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DA433-18EA-D441-9928-67EA7322761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF905E-44A2-2F41-941F-D13E2FC763F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29660" yWindow="1100" windowWidth="31960" windowHeight="16440" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
+    <workbookView xWindow="29420" yWindow="-1820" windowWidth="31960" windowHeight="16440" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,11 +322,14 @@
             </a:rPr>
             <a:t>は上下中央</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>se</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -462,6 +465,21 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタンのデザインは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Contact</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セクションボタンと共通にできるか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -662,17 +680,37 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>、全体を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全体を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>a </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>タグで囲む</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -733,7 +771,10 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>背景画像にする</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -1011,6 +1052,21 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・カード全体をリンクにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・カードの中は画像、サブタイトル、テキスト</a:t>
           </a:r>
@@ -1248,6 +1304,21 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・カード全体をリンクにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・カードの中身は画像＋テキスト（テキストはサブタイトル＋テキスト）</a:t>
           </a:r>
@@ -2316,6 +2387,31 @@
             <a:t>方式</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のリンクは別タブで開く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタンのリンクは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>googleMap</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3523,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E4DCC8-FB33-8F43-94B2-FCBE4B877F29}">
   <dimension ref="I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>

--- a/Day34(final_task)/document/概設計/概設計.xlsx
+++ b/Day34(final_task)/document/概設計/概設計.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/Documents/git/daily-trial_standard/Day34(final_task)/document/概設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF905E-44A2-2F41-941F-D13E2FC763F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28D9CD-BD19-0D4F-8A3A-4FC39C2A6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="-1820" windowWidth="31960" windowHeight="16440" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
+    <workbookView xWindow="31020" yWindow="-2040" windowWidth="31960" windowHeight="16440" activeTab="2" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概設計" sheetId="1" r:id="rId1"/>
+    <sheet name="課題" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">課題!$B$3:$F$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,9 +41,380 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+  <si>
+    <t>commentsの背景黒部　大画面できれる</t>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ダイガメンデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accessの背景黒部　大画面で切れる</t>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">ハイケイクロブ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ダイガメンデキレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Results　スワイパーの右側はこれでいいのか</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ミギガワハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments  背景に線が入る</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ハイケイニ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">センガハイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Access 背景に線が入る</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハイケイニセンガ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ハイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAQ QAを開くと背景が動く</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ヒラクト </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ハイケイガ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ウゴク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要デザイン確認</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to Topがインナー幅に収まってない</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ハバ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オサマッテナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応状況</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">タイオウジョウキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC時</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rightの位置に、以下を指定
+calc(50% - $width-max-1 / 2);</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イチヲ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">イカヲ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> background-attachment: fixed;
+を付与
+QAを開いても動かなくなったがスクロールでも動かない
+これはこれでいいか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック方法</t>
+  </si>
+  <si>
+    <t>切れないように修正</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キレナイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れないように修正</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キレナイヨウニ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応しない</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タイオウシナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応しない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れないパターンとどっちがいいか
+→切れないパターンが良い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キレナイ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">キレナイ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ヨイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのままでOK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤字脱字がないか</t>
+  </si>
+  <si>
+    <t>テキスト比較ツールで比較</t>
+  </si>
+  <si>
+    <t>改行位置は適切か</t>
+  </si>
+  <si>
+    <t>タブレットやスマホ時の&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>フォントは適切か</t>
+  </si>
+  <si>
+    <t>WhatFontで確認</t>
+  </si>
+  <si>
+    <t>色が適切か</t>
+  </si>
+  <si>
+    <t>ColorPick Eyedropper or デベロッパーツールから設定されているcolor、background-color、border-colorをデザインカンプと比較</t>
+  </si>
+  <si>
+    <t>スムーズにレスポンシブ化されるか</t>
+  </si>
+  <si>
+    <t>レスポンシブデザインモードで目視確認</t>
+  </si>
+  <si>
+    <t>水平スクロールしないか</t>
+  </si>
+  <si>
+    <t>リンク要素（ボタン等）のホバー時の挙動は設定されているか</t>
+  </si>
+  <si>
+    <t>実際に確認（人的作業なので、何をチェックしたかの指示書があるといいかもしれない…）</t>
+  </si>
+  <si>
+    <t>JavaScriptの挙動は正しいか</t>
+  </si>
+  <si>
+    <t>実際に確認（何をチェックしたかの指示書が別にあるといいかもしれない…）</t>
+  </si>
+  <si>
+    <t>altが正しく設定されているか</t>
+  </si>
+  <si>
+    <t>Webサービス → 画像ALTチェッカーChrome拡張 → Alt &amp; Meta viewer</t>
+  </si>
+  <si>
+    <t>見出し構造が不自然ではないか</t>
+  </si>
+  <si>
+    <t>ブックマークレット → https://www.pixelimage.jp/blog/2015/08/bookmarklet_seo.html</t>
+  </si>
+  <si>
+    <t>TDK(Title, Description, Keyword)は正しく設定されているか</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>閉じタグチェック</t>
+  </si>
+  <si>
+    <t>Chrome拡張 → HTMLエラーチェッカーブックマークレット → https://oops0011.blog.fc2.com/blog-entry-214.html</t>
+  </si>
+  <si>
+    <t>W3Cチェック（HTML、CSS）</t>
+  </si>
+  <si>
+    <t>HTML → https://validator.w3.org/ CSS → http://jigsaw.w3.org/css-validator/</t>
+  </si>
+  <si>
+    <t>デザインカンプの効果をCSSで表現できているか（box-shadow、opacityなど）</t>
+  </si>
+  <si>
+    <t>目視確認</t>
+  </si>
+  <si>
+    <t>デザインカンプとWebサイトを見比べてズレがないか</t>
+  </si>
+  <si>
+    <t>デザインカンプを画像で書き出して、PerfectPixelでチェック。</t>
+  </si>
+  <si>
+    <t>Chrome、Firefox、Safari、Edgeで表示崩れが起きていないか</t>
+  </si>
+  <si>
+    <t>実際に各ブラウザから目視で確認</t>
+  </si>
+  <si>
+    <t>リンク切れが起きていないか</t>
+  </si>
+  <si>
+    <t>Frogを回して確認</t>
+  </si>
+  <si>
+    <t>コンソールエラーが出てないか</t>
+  </si>
+  <si>
+    <t>デベロッパーツール</t>
+  </si>
+  <si>
+    <t>画像が圧縮されているか</t>
+  </si>
+  <si>
+    <t>圧縮サービスなどを活用 → https://tinypng.com/</t>
+  </si>
+  <si>
+    <t>画像が同じか</t>
+  </si>
+  <si>
+    <t>目視</t>
+  </si>
+  <si>
+    <t>大項目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ダイコウモク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">チュウコウモク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果補足</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ホソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ（320px）、タブレット（768px）、PC（カンプ）の3パターンの表示に崩れはないか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>320px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>414px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>768px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1920px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3000px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,16 +430,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -70,21 +487,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +654,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>193040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -179,7 +670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7884160" y="60960"/>
-          <a:ext cx="4724400" cy="1544320"/>
+          <a:ext cx="4724400" cy="1635760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -231,65 +722,43 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nav</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は左右中央</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>・ロゴはリンクにする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>nav</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は左右中央</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>nav</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>drawer.js</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を使おうかな</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -320,16 +789,67 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>drawer.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を使おうかな</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nav</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>は上下中央</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>se</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -414,23 +934,50 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　→いったん</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>→いったん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
             <a:t>HTML</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
             <a:t>で画像指定して</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
             <a:t>object-fit:cover</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
             <a:t>で作ってみよう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景画像で指定しが、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時は位置調整する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3617,20 +4164,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E4DCC8-FB33-8F43-94B2-FCBE4B877F29}">
-  <dimension ref="I121"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A116" zoomScale="125" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="121" spans="9:9">
-      <c r="I121" s="1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6AA41-DCD1-DD47-B960-459A1038EECF}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="21" thickBot="1">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="43" thickTop="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="42">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="42">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="105">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="42">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:F3" xr:uid="{B6E6AA41-DCD1-DD47-B960-459A1038EECF}"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAECCD8-8D81-9849-AC71-07EF87DE2A53}">
+  <dimension ref="B3:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="7" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="21" thickBot="1">
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21" thickTop="1">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:F3" xr:uid="{7AAECCD8-8D81-9849-AC71-07EF87DE2A53}"/>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://difff.jp/" xr:uid="{4658E9BF-7B86-FD43-A219-F4CAED6E6564}"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://chrome.google.com/webstore/detail/whatfont/jabopobgcpjmedljpbcaablpmlmfcogm?hl=ja" xr:uid="{C5596E2F-BAC5-0C47-AA6F-C3DF8E6D96C3}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://chrome.google.com/webstore/detail/colorpick-eyedropper/ohcpnigalekghcmgcdcenkpelffpdolg" xr:uid="{95A493D7-D8E4-7C44-BB86-6D71AB702E4B}"/>
+    <hyperlink ref="F19" r:id="rId4" display="https://www.pixelimage.jp/blog/2015/08/bookmarklet_seo.html" xr:uid="{390F2310-61D9-FB42-9276-76103E5344F8}"/>
+    <hyperlink ref="F24" r:id="rId5" display="http://www.welldonecode.com/perfectpixel/" xr:uid="{9F342A7A-2179-B24A-B353-E55AC0B3498C}"/>
+    <hyperlink ref="F26" r:id="rId6" display="https://www.screamingfrog.co.uk/seo-spider/" xr:uid="{4B4A3639-AD5E-834C-9E49-F9B3F49022FE}"/>
+    <hyperlink ref="F28" r:id="rId7" display="https://tinypng.com/" xr:uid="{32D49F1A-5F43-7A49-9A62-AEE8A94E0E36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Day34(final_task)/document/概設計/概設計.xlsx
+++ b/Day34(final_task)/document/概設計/概設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/Documents/git/daily-trial_standard/Day34(final_task)/document/概設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28D9CD-BD19-0D4F-8A3A-4FC39C2A6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9A856-83E4-584B-AE4D-D7DCC71A3CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="-2040" windowWidth="31960" windowHeight="16440" activeTab="2" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
+    <workbookView xWindow="30940" yWindow="-2040" windowWidth="31960" windowHeight="16440" activeTab="2" xr2:uid="{09FFBDEA-9949-A246-BC36-94192D02A9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="概設計" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$3:$F$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">課題!$B$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$3:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">課題!$B$3:$F$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>commentsの背景黒部　大画面できれる</t>
     <rPh sb="14" eb="17">
@@ -163,13 +163,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>済</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">スミ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,20 +343,6 @@
     <t>目視</t>
   </si>
   <si>
-    <t>大項目</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ダイコウモク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">チュウコウモク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結果</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,27 +365,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>320px</t>
+    <t>スマホ実機で見たとき、スライダーのページネーションの外円が見切れる</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ミタトキ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ソトエン </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ミキレル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>414px</t>
+    <t>ドロワーメニューが上下真ん中に合った方が良い。。。</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ジョウゲマンナカ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ヨイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>768px</t>
+    <t>WowはPC時だけで良いかな</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">イイカナ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1024px</t>
+    <t>Chrome：OK
+Firefox：OK
+Safari：OK
+Edge：OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1920px</t>
+    <t>スライダーはループで良いのか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3000px</t>
+    <t>Safariだけテーブルが崩れる</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">クズレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Safariだけ必須のスタイルおかしい？　文字が大きい？</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">モジガオオキイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピクパで確認</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピクパで確認</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ピクパカクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET http://127.0.0.1:5500/favicon.ico 404 (Not Found)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視確認</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">モクシカクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML:NG
+CSS：OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAQ　buttonの中にdlはNG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;をdivでラップして、transformで位置調整</t>
+    <rPh sb="25" eb="29">
+      <t xml:space="preserve">イチチョウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループをfalse
+→ページネーションのドット数が減ってしまった
+Swiper-ItemのWidthとGapをjsで指定するようにしたらドット数も揃った</t>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">スウガ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ヘッテシマッタノデ </t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t xml:space="preserve">ソロッタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swiperのpadding-bottomを1px広げた</t>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ヒロゲタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSのSwiperにかかわる処理全体を以下でくくった
+if(window.matchMedia('(min-width:1024px)').matches) {</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ゼンタイヲ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">イカデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・buttonの代わりにdivで作成
+・rolu="tab"
+・tabindexでフォーカス可能にする
+・keydownでクリックイベント発生させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再現しなくなった
+キャッシュが悪さしていたのかもしれない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイゲンシナクナッタ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ワルサシテイタノカモシレナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応しない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウナシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table-layout:fixed;を消したら解消できた。</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ケシタラ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カイショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応済み</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タイオウスミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダイコウモク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select　NG→修正OK</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,8 +617,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,6 +738,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4180,10 +4359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6AA41-DCD1-DD47-B960-459A1038EECF}">
-  <dimension ref="B2:F10"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4217,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="43" thickTop="1">
+    <row r="4" spans="2:6" ht="43" hidden="1" thickTop="1">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -4228,13 +4408,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" ht="21" hidden="1" thickTop="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4242,12 +4422,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="42">
+    <row r="6" spans="2:6" ht="43" hidden="1" thickTop="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -4258,13 +4438,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" ht="21" hidden="1" thickTop="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4272,12 +4452,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="42">
+    <row r="8" spans="2:6" ht="43" hidden="1" thickTop="1">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -4288,13 +4468,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="105">
+    <row r="9" spans="2:6" ht="106" hidden="1" thickTop="1">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -4305,11 +4485,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="42">
+    <row r="10" spans="2:6" ht="43" hidden="1" thickTop="1">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -4317,15 +4497,124 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1"/>
     </row>
+    <row r="11" spans="2:6" ht="21" hidden="1" thickTop="1">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="21" hidden="1" thickTop="1">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="64" hidden="1" thickTop="1">
+      <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="85" hidden="1" thickTop="1">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="21" thickTop="1">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="42">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="84" hidden="1">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:F3" xr:uid="{B6E6AA41-DCD1-DD47-B960-459A1038EECF}"/>
+  <autoFilter ref="B3:F17" xr:uid="{B6E6AA41-DCD1-DD47-B960-459A1038EECF}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4333,342 +4622,389 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAECCD8-8D81-9849-AC71-07EF87DE2A53}">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="7" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="80" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="21" thickBot="1">
+    <row r="3" spans="2:5" ht="21" thickBot="1">
       <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21" thickTop="1">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="84">
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="21" thickTop="1">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="2:5" ht="84">
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="2:5" ht="84">
+      <c r="B11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="2:5" ht="84">
+      <c r="B12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
+    <row r="13" spans="2:5" ht="84">
+      <c r="B13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="2:5" ht="84">
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="84">
+      <c r="B15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="19" spans="2:5">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="42">
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="26" spans="2:5">
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7" t="s">
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F3" xr:uid="{7AAECCD8-8D81-9849-AC71-07EF87DE2A53}"/>
+  <autoFilter ref="B3:E30" xr:uid="{7AAECCD8-8D81-9849-AC71-07EF87DE2A53}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://difff.jp/" xr:uid="{4658E9BF-7B86-FD43-A219-F4CAED6E6564}"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://chrome.google.com/webstore/detail/whatfont/jabopobgcpjmedljpbcaablpmlmfcogm?hl=ja" xr:uid="{C5596E2F-BAC5-0C47-AA6F-C3DF8E6D96C3}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://chrome.google.com/webstore/detail/colorpick-eyedropper/ohcpnigalekghcmgcdcenkpelffpdolg" xr:uid="{95A493D7-D8E4-7C44-BB86-6D71AB702E4B}"/>
-    <hyperlink ref="F19" r:id="rId4" display="https://www.pixelimage.jp/blog/2015/08/bookmarklet_seo.html" xr:uid="{390F2310-61D9-FB42-9276-76103E5344F8}"/>
-    <hyperlink ref="F24" r:id="rId5" display="http://www.welldonecode.com/perfectpixel/" xr:uid="{9F342A7A-2179-B24A-B353-E55AC0B3498C}"/>
-    <hyperlink ref="F26" r:id="rId6" display="https://www.screamingfrog.co.uk/seo-spider/" xr:uid="{4B4A3639-AD5E-834C-9E49-F9B3F49022FE}"/>
-    <hyperlink ref="F28" r:id="rId7" display="https://tinypng.com/" xr:uid="{32D49F1A-5F43-7A49-9A62-AEE8A94E0E36}"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://difff.jp/" xr:uid="{4658E9BF-7B86-FD43-A219-F4CAED6E6564}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://chrome.google.com/webstore/detail/whatfont/jabopobgcpjmedljpbcaablpmlmfcogm?hl=ja" xr:uid="{C5596E2F-BAC5-0C47-AA6F-C3DF8E6D96C3}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://chrome.google.com/webstore/detail/colorpick-eyedropper/ohcpnigalekghcmgcdcenkpelffpdolg" xr:uid="{95A493D7-D8E4-7C44-BB86-6D71AB702E4B}"/>
+    <hyperlink ref="E20" r:id="rId4" display="https://www.pixelimage.jp/blog/2015/08/bookmarklet_seo.html" xr:uid="{390F2310-61D9-FB42-9276-76103E5344F8}"/>
+    <hyperlink ref="E25" r:id="rId5" display="http://www.welldonecode.com/perfectpixel/" xr:uid="{9F342A7A-2179-B24A-B353-E55AC0B3498C}"/>
+    <hyperlink ref="E27" r:id="rId6" display="https://www.screamingfrog.co.uk/seo-spider/" xr:uid="{4B4A3639-AD5E-834C-9E49-F9B3F49022FE}"/>
+    <hyperlink ref="E29" r:id="rId7" display="https://tinypng.com/" xr:uid="{32D49F1A-5F43-7A49-9A62-AEE8A94E0E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
